--- a/VersionRecords/Version 5.3.8 201704111/版本Bug和特性计划及评审表v5.3.8.xlsx
+++ b/VersionRecords/Version 5.3.8 201704111/版本Bug和特性计划及评审表v5.3.8.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31940" yWindow="3480" windowWidth="23440" windowHeight="13360"/>
+    <workbookView xWindow="8880" yWindow="2760" windowWidth="23440" windowHeight="13360"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本X.X.X 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="182">
   <si>
     <t>No</t>
   </si>
@@ -669,6 +669,93 @@
   </si>
   <si>
     <t>裔玲玲</t>
+  </si>
+  <si>
+    <t>蘑菇月付贷款统计</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs、tasktracker</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩美娟</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>王云飞</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>JRYXBB-1</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇宝贷款统计</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs、tasktracker</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅寰寰</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>王云飞</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>JRYXBB-2</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇宝成本收益统计</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙周麟</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>JRYXBB-3</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇宝逾期坏账统计</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>王峥嵘</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>JRYXBB-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -902,7 +989,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1058,6 +1145,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1095,7 +1206,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1303,6 +1414,69 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1330,68 +1504,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="6" borderId="10" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="13" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1410,7 +1533,7 @@
     <cellStyle name="甘特图" xfId="3"/>
     <cellStyle name="个性色4" xfId="11" builtinId="41"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -1421,11 +1544,9 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf/>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
     <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -1768,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1870,16 +1991,16 @@
       </c>
     </row>
     <row r="2" spans="1:24" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="78">
+      <c r="A2" s="69">
         <v>1</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="70" t="s">
         <v>70</v>
       </c>
       <c r="E2" s="50" t="s">
@@ -1901,7 +2022,7 @@
         <v>42835</v>
       </c>
       <c r="K2" s="50"/>
-      <c r="L2" s="80" t="s">
+      <c r="L2" s="71" t="s">
         <v>74</v>
       </c>
       <c r="M2" s="50" t="s">
@@ -1913,17 +2034,17 @@
       <c r="O2" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="P2" s="80" t="s">
+      <c r="P2" s="71" t="s">
         <v>78</v>
       </c>
       <c r="Q2" s="51">
         <v>42835</v>
       </c>
-      <c r="R2" s="81" t="s">
+      <c r="R2" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="S2" s="82"/>
-      <c r="T2" s="83">
+      <c r="S2" s="73"/>
+      <c r="T2" s="74">
         <v>10662</v>
       </c>
       <c r="U2" s="48"/>
@@ -1932,16 +2053,16 @@
       <c r="X2" s="64"/>
     </row>
     <row r="3" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A3" s="78">
+      <c r="A3" s="69">
         <v>2</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="70" t="s">
         <v>80</v>
       </c>
       <c r="E3" s="50" t="s">
@@ -1963,7 +2084,7 @@
         <v>42835</v>
       </c>
       <c r="K3" s="50"/>
-      <c r="L3" s="80" t="s">
+      <c r="L3" s="71" t="s">
         <v>83</v>
       </c>
       <c r="M3" s="50" t="s">
@@ -1975,35 +2096,35 @@
       <c r="O3" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="P3" s="80" t="s">
+      <c r="P3" s="71" t="s">
         <v>78</v>
       </c>
       <c r="Q3" s="51">
         <v>42835</v>
       </c>
-      <c r="R3" s="81" t="s">
+      <c r="R3" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="S3" s="84" t="s">
+      <c r="S3" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="T3" s="85"/>
+      <c r="T3" s="76"/>
       <c r="U3" s="48"/>
       <c r="V3" s="58"/>
       <c r="W3" s="65"/>
       <c r="X3" s="64"/>
     </row>
     <row r="4" spans="1:24" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="78">
+      <c r="A4" s="69">
         <v>3</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="70" t="s">
         <v>87</v>
       </c>
       <c r="E4" s="50" t="s">
@@ -2025,7 +2146,7 @@
         <v>42833</v>
       </c>
       <c r="K4" s="50"/>
-      <c r="L4" s="80" t="s">
+      <c r="L4" s="71" t="s">
         <v>89</v>
       </c>
       <c r="M4" s="50" t="s">
@@ -2037,13 +2158,13 @@
       <c r="O4" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="71" t="s">
         <v>78</v>
       </c>
       <c r="Q4" s="51">
         <v>42833</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="71" t="s">
         <v>79</v>
       </c>
       <c r="S4" s="59"/>
@@ -2056,16 +2177,16 @@
       <c r="X4" s="64"/>
     </row>
     <row r="5" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="78">
+      <c r="A5" s="69">
         <v>4</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="70" t="s">
         <v>93</v>
       </c>
       <c r="E5" s="50" t="s">
@@ -2087,7 +2208,7 @@
         <v>42833</v>
       </c>
       <c r="K5" s="50"/>
-      <c r="L5" s="80" t="s">
+      <c r="L5" s="71" t="s">
         <v>95</v>
       </c>
       <c r="M5" s="50" t="s">
@@ -2099,13 +2220,13 @@
       <c r="O5" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="P5" s="80" t="s">
+      <c r="P5" s="71" t="s">
         <v>78</v>
       </c>
       <c r="Q5" s="51">
         <v>42833</v>
       </c>
-      <c r="R5" s="80" t="s">
+      <c r="R5" s="71" t="s">
         <v>79</v>
       </c>
       <c r="S5" s="59" t="s">
@@ -2118,56 +2239,56 @@
       <c r="X5" s="64"/>
     </row>
     <row r="6" spans="1:24" s="38" customFormat="1" ht="32" x14ac:dyDescent="0.15">
-      <c r="A6" s="78">
+      <c r="A6" s="69">
         <v>5</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="95" t="s">
+      <c r="D6" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="96" t="s">
+      <c r="E6" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="96" t="s">
+      <c r="F6" s="87" t="s">
         <v>140</v>
       </c>
-      <c r="G6" s="96" t="s">
+      <c r="G6" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="97">
+      <c r="H6" s="88">
         <v>42835</v>
       </c>
-      <c r="I6" s="96" t="s">
+      <c r="I6" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="J6" s="97">
+      <c r="J6" s="88">
         <v>42835</v>
       </c>
-      <c r="K6" s="96"/>
-      <c r="L6" s="98" t="s">
+      <c r="K6" s="87"/>
+      <c r="L6" s="89" t="s">
         <v>141</v>
       </c>
-      <c r="M6" s="96" t="s">
+      <c r="M6" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="N6" s="96" t="s">
+      <c r="N6" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="O6" s="96" t="s">
+      <c r="O6" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="P6" s="98" t="s">
+      <c r="P6" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="Q6" s="97">
+      <c r="Q6" s="88">
         <v>42835</v>
       </c>
-      <c r="R6" s="98" t="s">
+      <c r="R6" s="89" t="s">
         <v>79</v>
       </c>
       <c r="S6" s="59" t="s">
@@ -2180,56 +2301,56 @@
       <c r="X6" s="64"/>
     </row>
     <row r="7" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="78">
+      <c r="A7" s="69">
         <v>6</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="87" t="s">
         <v>147</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="97">
+      <c r="H7" s="88">
         <v>42835</v>
       </c>
-      <c r="I7" s="96" t="s">
+      <c r="I7" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="J7" s="97">
+      <c r="J7" s="88">
         <v>42835</v>
       </c>
-      <c r="K7" s="96"/>
-      <c r="L7" s="98" t="s">
+      <c r="K7" s="87"/>
+      <c r="L7" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="M7" s="96" t="s">
+      <c r="M7" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="N7" s="96" t="s">
+      <c r="N7" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="O7" s="96" t="s">
+      <c r="O7" s="87" t="s">
         <v>149</v>
       </c>
-      <c r="P7" s="98" t="s">
+      <c r="P7" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="Q7" s="97">
+      <c r="Q7" s="88">
         <v>42835</v>
       </c>
-      <c r="R7" s="98" t="s">
+      <c r="R7" s="89" t="s">
         <v>79</v>
       </c>
       <c r="S7" s="59" t="s">
@@ -2242,56 +2363,56 @@
       <c r="X7" s="64"/>
     </row>
     <row r="8" spans="1:24" s="38" customFormat="1" ht="32" x14ac:dyDescent="0.15">
-      <c r="A8" s="78">
+      <c r="A8" s="69">
         <v>7</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="95" t="s">
+      <c r="D8" s="86" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="96" t="s">
+      <c r="E8" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="96" t="s">
+      <c r="F8" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="G8" s="96" t="s">
+      <c r="G8" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="97">
+      <c r="H8" s="88">
         <v>42835</v>
       </c>
-      <c r="I8" s="96" t="s">
+      <c r="I8" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="97">
+      <c r="J8" s="88">
         <v>42835</v>
       </c>
-      <c r="K8" s="96"/>
-      <c r="L8" s="98" t="s">
+      <c r="K8" s="87"/>
+      <c r="L8" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="M8" s="96" t="s">
+      <c r="M8" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="N8" s="96" t="s">
+      <c r="N8" s="87" t="s">
         <v>143</v>
       </c>
-      <c r="O8" s="96" t="s">
+      <c r="O8" s="87" t="s">
         <v>154</v>
       </c>
-      <c r="P8" s="98" t="s">
+      <c r="P8" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="Q8" s="97">
+      <c r="Q8" s="88">
         <v>42835</v>
       </c>
-      <c r="R8" s="98" t="s">
+      <c r="R8" s="89" t="s">
         <v>79</v>
       </c>
       <c r="S8" s="59" t="s">
@@ -2304,56 +2425,56 @@
       <c r="X8" s="64"/>
     </row>
     <row r="9" spans="1:24" s="38" customFormat="1" ht="32" x14ac:dyDescent="0.15">
-      <c r="A9" s="78">
+      <c r="A9" s="69">
         <v>8</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="95" t="s">
+      <c r="D9" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="96" t="s">
+      <c r="E9" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="96" t="s">
+      <c r="F9" s="87" t="s">
         <v>157</v>
       </c>
-      <c r="G9" s="96" t="s">
+      <c r="G9" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="97">
+      <c r="H9" s="88">
         <v>42835</v>
       </c>
-      <c r="I9" s="96" t="s">
+      <c r="I9" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="97">
+      <c r="J9" s="88">
         <v>42835</v>
       </c>
-      <c r="K9" s="96"/>
-      <c r="L9" s="98" t="s">
+      <c r="K9" s="87"/>
+      <c r="L9" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="M9" s="96" t="s">
+      <c r="M9" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="N9" s="96" t="s">
+      <c r="N9" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="O9" s="96" t="s">
+      <c r="O9" s="87" t="s">
         <v>158</v>
       </c>
-      <c r="P9" s="98" t="s">
+      <c r="P9" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="Q9" s="97">
+      <c r="Q9" s="88">
         <v>42835</v>
       </c>
-      <c r="R9" s="98" t="s">
+      <c r="R9" s="89" t="s">
         <v>79</v>
       </c>
       <c r="S9" s="59" t="s">
@@ -2366,56 +2487,56 @@
       <c r="X9" s="64"/>
     </row>
     <row r="10" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A10" s="78">
+      <c r="A10" s="69">
         <v>9</v>
       </c>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="95" t="s">
+      <c r="D10" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="E10" s="96" t="s">
+      <c r="E10" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="96" t="s">
+      <c r="F10" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="G10" s="96" t="s">
+      <c r="G10" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="97">
+      <c r="H10" s="88">
         <v>42835</v>
       </c>
-      <c r="I10" s="96" t="s">
+      <c r="I10" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="97">
+      <c r="J10" s="88">
         <v>42835</v>
       </c>
-      <c r="K10" s="96"/>
-      <c r="L10" s="98" t="s">
+      <c r="K10" s="87"/>
+      <c r="L10" s="89" t="s">
         <v>162</v>
       </c>
-      <c r="M10" s="96" t="s">
+      <c r="M10" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="N10" s="96" t="s">
+      <c r="N10" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="O10" s="96" t="s">
+      <c r="O10" s="87" t="s">
         <v>158</v>
       </c>
-      <c r="P10" s="98" t="s">
+      <c r="P10" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="Q10" s="97">
+      <c r="Q10" s="88">
         <v>42835</v>
       </c>
-      <c r="R10" s="98" t="s">
+      <c r="R10" s="89" t="s">
         <v>79</v>
       </c>
       <c r="S10" s="59" t="s">
@@ -2428,104 +2549,248 @@
       <c r="X10" s="64"/>
     </row>
     <row r="11" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="51"/>
+      <c r="A11" s="69">
+        <v>10</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="70" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="99">
+        <v>42825</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="99">
+        <v>42825</v>
+      </c>
       <c r="K11" s="50"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
+      <c r="L11" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="M11" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="N11" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="P11" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="99">
+        <v>42832</v>
+      </c>
+      <c r="R11" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="S11" s="74" t="s">
+        <v>168</v>
+      </c>
+      <c r="T11" s="100"/>
       <c r="U11" s="48"/>
       <c r="V11" s="58"/>
       <c r="W11" s="65"/>
       <c r="X11" s="64"/>
     </row>
     <row r="12" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="51"/>
+      <c r="A12" s="69">
+        <v>11</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="99">
+        <v>42825</v>
+      </c>
+      <c r="I12" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="99">
+        <v>42825</v>
+      </c>
       <c r="K12" s="50"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
+      <c r="L12" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="M12" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="N12" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="O12" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="P12" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q12" s="99">
+        <v>42832</v>
+      </c>
+      <c r="R12" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="S12" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="T12" s="100"/>
       <c r="U12" s="48"/>
       <c r="V12" s="58"/>
       <c r="W12" s="65"/>
       <c r="X12" s="64"/>
     </row>
     <row r="13" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="51"/>
+      <c r="A13" s="69">
+        <v>12</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="99">
+        <v>42825</v>
+      </c>
+      <c r="I13" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="99">
+        <v>42825</v>
+      </c>
       <c r="K13" s="50"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
+      <c r="L13" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="M13" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="N13" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="O13" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="P13" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q13" s="99">
+        <v>42832</v>
+      </c>
+      <c r="R13" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="S13" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="T13" s="101"/>
       <c r="U13" s="48"/>
       <c r="V13" s="58"/>
       <c r="W13" s="65"/>
       <c r="X13" s="64"/>
     </row>
     <row r="14" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="51"/>
+      <c r="A14" s="69">
+        <v>13</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="70" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="99">
+        <v>42825</v>
+      </c>
+      <c r="I14" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="99">
+        <v>42825</v>
+      </c>
       <c r="K14" s="50"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
+      <c r="L14" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="M14" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="N14" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="O14" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="P14" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q14" s="99">
+        <v>42832</v>
+      </c>
+      <c r="R14" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="S14" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="T14" s="100"/>
       <c r="U14" s="48"/>
       <c r="V14" s="58"/>
       <c r="W14" s="65"/>
@@ -6318,7 +6583,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 I1:I1048576 G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 G1:G1048576 I1:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6332,6 +6597,7 @@
     <hyperlink ref="S7" r:id="rId7"/>
     <hyperlink ref="S9" r:id="rId8"/>
     <hyperlink ref="S10" r:id="rId9"/>
+    <hyperlink ref="S12" r:id="rId10" tooltip="View this issue in JIRA" display="http://192.168.60.204/browse/JRYXBB-2"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -6423,25 +6689,25 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="89" t="s">
+      <c r="F2" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="90" t="s">
+      <c r="G2" s="81" t="s">
         <v>104</v>
       </c>
       <c r="H2" s="32" t="s">
@@ -6450,52 +6716,52 @@
       <c r="I2" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="J2" s="91" t="s">
+      <c r="J2" s="82" t="s">
         <v>107</v>
       </c>
       <c r="K2" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="L2" s="92" t="s">
+      <c r="L2" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="M2" s="91" t="s">
+      <c r="M2" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="N2" s="91" t="s">
+      <c r="N2" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="O2" s="93" t="s">
+      <c r="O2" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="P2" s="94" t="s">
+      <c r="P2" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="Q2" s="93" t="s">
+      <c r="Q2" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="R2" s="93"/>
+      <c r="R2" s="84"/>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="89" t="s">
+      <c r="F3" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="81" t="s">
         <v>104</v>
       </c>
       <c r="H3" s="32" t="s">
@@ -6504,52 +6770,52 @@
       <c r="I3" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="J3" s="91" t="s">
+      <c r="J3" s="82" t="s">
         <v>115</v>
       </c>
       <c r="K3" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="L3" s="92" t="s">
+      <c r="L3" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="M3" s="91" t="s">
+      <c r="M3" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="N3" s="91" t="s">
+      <c r="N3" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="O3" s="93" t="s">
+      <c r="O3" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="P3" s="94" t="s">
+      <c r="P3" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="Q3" s="93" t="s">
+      <c r="Q3" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="R3" s="93"/>
+      <c r="R3" s="84"/>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="F4" s="89" t="s">
+      <c r="F4" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="90" t="s">
+      <c r="G4" s="81" t="s">
         <v>104</v>
       </c>
       <c r="H4" s="32" t="s">
@@ -6558,52 +6824,52 @@
       <c r="I4" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="J4" s="91" t="s">
+      <c r="J4" s="82" t="s">
         <v>119</v>
       </c>
       <c r="K4" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="L4" s="92" t="s">
+      <c r="L4" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="M4" s="91" t="s">
+      <c r="M4" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="N4" s="91" t="s">
+      <c r="N4" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="O4" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="P4" s="94" t="s">
+      <c r="P4" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="Q4" s="93" t="s">
+      <c r="Q4" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="R4" s="93"/>
+      <c r="R4" s="84"/>
     </row>
     <row r="5" spans="1:18" ht="32" x14ac:dyDescent="0.15">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="87" t="s">
+      <c r="E5" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="F5" s="89" t="s">
+      <c r="F5" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="90" t="s">
+      <c r="G5" s="81" t="s">
         <v>127</v>
       </c>
       <c r="H5" s="32" t="s">
@@ -6612,52 +6878,52 @@
       <c r="I5" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="J5" s="91" t="s">
+      <c r="J5" s="82" t="s">
         <v>128</v>
       </c>
       <c r="K5" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="L5" s="92" t="s">
+      <c r="L5" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="M5" s="91" t="s">
+      <c r="M5" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="N5" s="91" t="s">
+      <c r="N5" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="O5" s="93" t="s">
+      <c r="O5" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="P5" s="94" t="s">
+      <c r="P5" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="Q5" s="93" t="s">
+      <c r="Q5" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="R5" s="93"/>
+      <c r="R5" s="84"/>
     </row>
     <row r="6" spans="1:18" ht="48" x14ac:dyDescent="0.15">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="87" t="s">
+      <c r="E6" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="F6" s="89" t="s">
+      <c r="F6" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="90" t="s">
+      <c r="G6" s="81" t="s">
         <v>127</v>
       </c>
       <c r="H6" s="32" t="s">
@@ -6666,31 +6932,31 @@
       <c r="I6" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="J6" s="91" t="s">
+      <c r="J6" s="82" t="s">
         <v>135</v>
       </c>
       <c r="K6" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="M6" s="91" t="s">
+      <c r="M6" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="N6" s="91" t="s">
+      <c r="N6" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="O6" s="93" t="s">
+      <c r="O6" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="P6" s="94" t="s">
+      <c r="P6" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="Q6" s="93" t="s">
+      <c r="Q6" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="R6" s="93"/>
+      <c r="R6" s="84"/>
     </row>
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
@@ -6719,19 +6985,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -6769,8 +7035,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6782,8 +7048,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6795,8 +7061,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="92"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6808,8 +7074,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
+      <c r="A6" s="94"/>
+      <c r="B6" s="94"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6821,8 +7087,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="73"/>
-      <c r="B7" s="73"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6834,8 +7100,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="73"/>
-      <c r="B8" s="73"/>
+      <c r="A8" s="94"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6847,8 +7113,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="73"/>
-      <c r="B9" s="73"/>
+      <c r="A9" s="94"/>
+      <c r="B9" s="94"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6860,8 +7126,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6922,36 +7188,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="75"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="96"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="77"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="98"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7236,36 +7502,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="75"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="96"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="77"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="98"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7550,36 +7816,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="75"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="96"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="77"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="98"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7866,36 +8132,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="75"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="96"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="77"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="98"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.3.8 201704111/版本Bug和特性计划及评审表v5.3.8.xlsx
+++ b/VersionRecords/Version 5.3.8 201704111/版本Bug和特性计划及评审表v5.3.8.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version 5.3.8 201704111/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.3.8 201704111\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="2760" windowWidth="23440" windowHeight="13360"/>
+    <workbookView xWindow="8880" yWindow="2760" windowWidth="23445" windowHeight="13365" tabRatio="762"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本X.X.X 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="202">
   <si>
     <t>No</t>
   </si>
@@ -458,7 +458,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="161"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>"}</t>
     </r>
@@ -751,18 +752,90 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
     </r>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
+  <si>
+    <t>磐石组</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoda-tasktracker</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdbc.properties</t>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>//生产环境配置值请参考 mogoroom-bs 主写库配置
+jdbc.driverClassName_landlordRepo=
+jdbc.url_landlordRepo=
+jdbc.username_landlordRepo=
+jdbc.password_landlordRepo=</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加新的数据源配置，用来做不同数据库的数据交互</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产环境</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙苏文</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>王岩</t>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>mogoda-tasktracker</t>
+  </si>
+  <si>
+    <t>数据中心运营报表每日增量财务字段更新</t>
+  </si>
+  <si>
+    <t>孙苏文</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.dc.DcLandStatIncDayMoreTask</t>
+  </si>
+  <si>
+    <t>DcLandStatIncDayMoreTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.dc.DcLandStatIncDayMoreTask"}</t>
+  </si>
+  <si>
+    <t>定时任务</t>
+  </si>
+  <si>
+    <t>每日凌晨3点</t>
+  </si>
+  <si>
+    <t>是，依赖DcLandStatIncDayTask</t>
+  </si>
+  <si>
+    <t>不可重复执行，如有错，需开发修复</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -782,20 +855,23 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -833,35 +909,41 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="63"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -875,6 +957,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -894,6 +977,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -905,6 +989,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -931,6 +1016,12 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1206,7 +1297,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1477,6 +1568,18 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="14" fillId="6" borderId="10" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1504,17 +1607,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="6" borderId="10" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1531,7 +1640,7 @@
     <cellStyle name="常规 9" xfId="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
-    <cellStyle name="个性色4" xfId="11" builtinId="41"/>
+    <cellStyle name="着色 4" xfId="11" builtinId="41"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1546,13 +1655,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="1">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1889,37 +2001,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="39" customWidth="1"/>
-    <col min="2" max="3" width="9.83203125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="39" customWidth="1"/>
+    <col min="2" max="3" width="9.875" style="39" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="40" customWidth="1"/>
     <col min="5" max="5" width="15" style="39" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" style="39" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="39" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="40" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="39" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="40" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="40" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" style="39" customWidth="1"/>
-    <col min="14" max="15" width="11.33203125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="39" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="40" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="39" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="40" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="40" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="39" customWidth="1"/>
+    <col min="13" max="13" width="15.875" style="39" customWidth="1"/>
+    <col min="14" max="15" width="11.375" style="39" customWidth="1"/>
     <col min="16" max="16" width="10" style="40" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="40" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" style="40" customWidth="1"/>
+    <col min="18" max="18" width="7.625" style="40" customWidth="1"/>
     <col min="19" max="20" width="12" style="41" customWidth="1"/>
     <col min="21" max="21" width="17" style="41" customWidth="1"/>
-    <col min="22" max="22" width="14.1640625" style="41" customWidth="1"/>
-    <col min="23" max="23" width="41.83203125" style="40" customWidth="1"/>
-    <col min="24" max="24" width="8.83203125" customWidth="1"/>
+    <col min="22" max="22" width="14.125" style="41" customWidth="1"/>
+    <col min="23" max="23" width="41.875" style="40" customWidth="1"/>
+    <col min="24" max="24" width="8.875" customWidth="1"/>
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="37" customFormat="1" ht="27">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -1990,7 +2102,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="38" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="69">
         <v>1</v>
       </c>
@@ -2052,7 +2164,7 @@
       <c r="W2" s="63"/>
       <c r="X2" s="64"/>
     </row>
-    <row r="3" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" s="38" customFormat="1" ht="16.5">
       <c r="A3" s="69">
         <v>2</v>
       </c>
@@ -2114,7 +2226,7 @@
       <c r="W3" s="65"/>
       <c r="X3" s="64"/>
     </row>
-    <row r="4" spans="1:24" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" s="38" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="69">
         <v>3</v>
       </c>
@@ -2176,7 +2288,7 @@
       <c r="W4" s="63"/>
       <c r="X4" s="64"/>
     </row>
-    <row r="5" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" s="38" customFormat="1" ht="16.5">
       <c r="A5" s="69">
         <v>4</v>
       </c>
@@ -2238,7 +2350,7 @@
       <c r="W5" s="65"/>
       <c r="X5" s="64"/>
     </row>
-    <row r="6" spans="1:24" s="38" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" s="38" customFormat="1" ht="33">
       <c r="A6" s="69">
         <v>5</v>
       </c>
@@ -2300,7 +2412,7 @@
       <c r="W6" s="65"/>
       <c r="X6" s="64"/>
     </row>
-    <row r="7" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" s="38" customFormat="1" ht="16.5">
       <c r="A7" s="69">
         <v>6</v>
       </c>
@@ -2362,7 +2474,7 @@
       <c r="W7" s="65"/>
       <c r="X7" s="64"/>
     </row>
-    <row r="8" spans="1:24" s="38" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" s="38" customFormat="1" ht="33">
       <c r="A8" s="69">
         <v>7</v>
       </c>
@@ -2424,7 +2536,7 @@
       <c r="W8" s="65"/>
       <c r="X8" s="64"/>
     </row>
-    <row r="9" spans="1:24" s="38" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" s="38" customFormat="1" ht="33">
       <c r="A9" s="69">
         <v>8</v>
       </c>
@@ -2486,7 +2598,7 @@
       <c r="W9" s="65"/>
       <c r="X9" s="64"/>
     </row>
-    <row r="10" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" s="38" customFormat="1" ht="16.5">
       <c r="A10" s="69">
         <v>9</v>
       </c>
@@ -2548,7 +2660,7 @@
       <c r="W10" s="65"/>
       <c r="X10" s="64"/>
     </row>
-    <row r="11" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" s="38" customFormat="1" ht="16.5">
       <c r="A11" s="69">
         <v>10</v>
       </c>
@@ -2570,13 +2682,13 @@
       <c r="G11" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="99">
+      <c r="H11" s="90">
         <v>42825</v>
       </c>
       <c r="I11" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="J11" s="99">
+      <c r="J11" s="90">
         <v>42825</v>
       </c>
       <c r="K11" s="50"/>
@@ -2595,7 +2707,7 @@
       <c r="P11" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="Q11" s="99">
+      <c r="Q11" s="90">
         <v>42832</v>
       </c>
       <c r="R11" s="72" t="s">
@@ -2604,13 +2716,13 @@
       <c r="S11" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="T11" s="100"/>
+      <c r="T11" s="91"/>
       <c r="U11" s="48"/>
       <c r="V11" s="58"/>
       <c r="W11" s="65"/>
       <c r="X11" s="64"/>
     </row>
-    <row r="12" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" s="38" customFormat="1" ht="16.5">
       <c r="A12" s="69">
         <v>11</v>
       </c>
@@ -2632,13 +2744,13 @@
       <c r="G12" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="99">
+      <c r="H12" s="90">
         <v>42825</v>
       </c>
       <c r="I12" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="J12" s="99">
+      <c r="J12" s="90">
         <v>42825</v>
       </c>
       <c r="K12" s="50"/>
@@ -2657,7 +2769,7 @@
       <c r="P12" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="Q12" s="99">
+      <c r="Q12" s="90">
         <v>42832</v>
       </c>
       <c r="R12" s="72" t="s">
@@ -2666,13 +2778,13 @@
       <c r="S12" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="T12" s="100"/>
+      <c r="T12" s="91"/>
       <c r="U12" s="48"/>
       <c r="V12" s="58"/>
       <c r="W12" s="65"/>
       <c r="X12" s="64"/>
     </row>
-    <row r="13" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" s="38" customFormat="1" ht="16.5">
       <c r="A13" s="69">
         <v>12</v>
       </c>
@@ -2694,13 +2806,13 @@
       <c r="G13" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="H13" s="99">
+      <c r="H13" s="90">
         <v>42825</v>
       </c>
       <c r="I13" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="J13" s="99">
+      <c r="J13" s="90">
         <v>42825</v>
       </c>
       <c r="K13" s="50"/>
@@ -2719,7 +2831,7 @@
       <c r="P13" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="Q13" s="99">
+      <c r="Q13" s="90">
         <v>42832</v>
       </c>
       <c r="R13" s="72" t="s">
@@ -2728,13 +2840,13 @@
       <c r="S13" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="T13" s="101"/>
+      <c r="T13" s="92"/>
       <c r="U13" s="48"/>
       <c r="V13" s="58"/>
       <c r="W13" s="65"/>
       <c r="X13" s="64"/>
     </row>
-    <row r="14" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" s="38" customFormat="1" ht="16.5">
       <c r="A14" s="69">
         <v>13</v>
       </c>
@@ -2756,13 +2868,13 @@
       <c r="G14" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="99">
+      <c r="H14" s="90">
         <v>42825</v>
       </c>
       <c r="I14" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="J14" s="99">
+      <c r="J14" s="90">
         <v>42825</v>
       </c>
       <c r="K14" s="50"/>
@@ -2775,13 +2887,13 @@
       <c r="N14" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="O14" s="102" t="s">
+      <c r="O14" s="93" t="s">
         <v>180</v>
       </c>
       <c r="P14" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="Q14" s="99">
+      <c r="Q14" s="90">
         <v>42832</v>
       </c>
       <c r="R14" s="72" t="s">
@@ -2790,13 +2902,13 @@
       <c r="S14" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="T14" s="100"/>
+      <c r="T14" s="91"/>
       <c r="U14" s="48"/>
       <c r="V14" s="58"/>
       <c r="W14" s="65"/>
       <c r="X14" s="64"/>
     </row>
-    <row r="15" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" s="38" customFormat="1" ht="16.5">
       <c r="A15" s="43"/>
       <c r="B15" s="43"/>
       <c r="C15" s="43"/>
@@ -2822,7 +2934,7 @@
       <c r="W15" s="65"/>
       <c r="X15" s="64"/>
     </row>
-    <row r="16" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" s="38" customFormat="1" ht="16.5">
       <c r="A16" s="43"/>
       <c r="B16" s="43"/>
       <c r="C16" s="43"/>
@@ -2848,7 +2960,7 @@
       <c r="W16" s="65"/>
       <c r="X16" s="64"/>
     </row>
-    <row r="17" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:24" s="38" customFormat="1" ht="16.5">
       <c r="A17" s="43"/>
       <c r="B17" s="43"/>
       <c r="C17" s="43"/>
@@ -2874,7 +2986,7 @@
       <c r="W17" s="66"/>
       <c r="X17" s="64"/>
     </row>
-    <row r="18" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:24" ht="16.5">
       <c r="A18" s="43"/>
       <c r="B18" s="43"/>
       <c r="C18" s="43"/>
@@ -2899,7 +3011,7 @@
       <c r="V18" s="48"/>
       <c r="W18" s="49"/>
     </row>
-    <row r="19" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:24" ht="16.5">
       <c r="A19" s="43"/>
       <c r="B19" s="43"/>
       <c r="C19" s="43"/>
@@ -2924,7 +3036,7 @@
       <c r="V19" s="48"/>
       <c r="W19" s="49"/>
     </row>
-    <row r="20" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:24" ht="16.5">
       <c r="A20" s="43"/>
       <c r="B20" s="43"/>
       <c r="C20" s="43"/>
@@ -2949,7 +3061,7 @@
       <c r="V20" s="48"/>
       <c r="W20" s="49"/>
     </row>
-    <row r="21" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:24" ht="16.5">
       <c r="A21" s="43"/>
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
@@ -2974,7 +3086,7 @@
       <c r="V21" s="48"/>
       <c r="W21" s="65"/>
     </row>
-    <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:24" ht="16.5">
       <c r="A22" s="43"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
@@ -2999,7 +3111,7 @@
       <c r="V22" s="48"/>
       <c r="W22" s="65"/>
     </row>
-    <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:24" ht="16.5">
       <c r="A23" s="43"/>
       <c r="B23" s="43"/>
       <c r="C23" s="43"/>
@@ -3024,7 +3136,7 @@
       <c r="V23" s="48"/>
       <c r="W23" s="65"/>
     </row>
-    <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:24" ht="16.5">
       <c r="A24" s="43"/>
       <c r="B24" s="43"/>
       <c r="C24" s="43"/>
@@ -3049,7 +3161,7 @@
       <c r="V24" s="61"/>
       <c r="W24" s="67"/>
     </row>
-    <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:24" ht="16.5">
       <c r="A25" s="43"/>
       <c r="B25" s="43"/>
       <c r="C25" s="43"/>
@@ -3074,7 +3186,7 @@
       <c r="V25" s="62"/>
       <c r="W25" s="67"/>
     </row>
-    <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" ht="16.5">
       <c r="A26" s="43"/>
       <c r="B26" s="43"/>
       <c r="C26" s="43"/>
@@ -3099,7 +3211,7 @@
       <c r="V26" s="68"/>
       <c r="W26" s="67"/>
     </row>
-    <row r="27" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:24" ht="16.5">
       <c r="A27" s="43"/>
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
@@ -3124,7 +3236,7 @@
       <c r="V27" s="62"/>
       <c r="W27" s="67"/>
     </row>
-    <row r="28" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" ht="16.5">
       <c r="A28" s="43"/>
       <c r="B28" s="43"/>
       <c r="C28" s="43"/>
@@ -3149,7 +3261,7 @@
       <c r="V28" s="62"/>
       <c r="W28" s="67"/>
     </row>
-    <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:24" ht="16.5">
       <c r="A29" s="43"/>
       <c r="B29" s="43"/>
       <c r="C29" s="43"/>
@@ -3174,7 +3286,7 @@
       <c r="V29" s="60"/>
       <c r="W29" s="54"/>
     </row>
-    <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:24" ht="16.5">
       <c r="A30" s="43"/>
       <c r="B30" s="43"/>
       <c r="C30" s="43"/>
@@ -3199,7 +3311,7 @@
       <c r="V30" s="48"/>
       <c r="W30" s="65"/>
     </row>
-    <row r="31" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:24" ht="16.5">
       <c r="A31" s="43"/>
       <c r="B31" s="43"/>
       <c r="C31" s="43"/>
@@ -3224,7 +3336,7 @@
       <c r="V31" s="48"/>
       <c r="W31" s="65"/>
     </row>
-    <row r="32" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:24" ht="16.5">
       <c r="A32" s="43"/>
       <c r="B32" s="43"/>
       <c r="C32" s="43"/>
@@ -3249,7 +3361,7 @@
       <c r="V32" s="48"/>
       <c r="W32" s="65"/>
     </row>
-    <row r="33" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="16.5">
       <c r="A33" s="43"/>
       <c r="B33" s="43"/>
       <c r="C33" s="43"/>
@@ -3274,7 +3386,7 @@
       <c r="V33" s="62"/>
       <c r="W33" s="67"/>
     </row>
-    <row r="34" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="16.5">
       <c r="A34" s="43"/>
       <c r="B34" s="43"/>
       <c r="C34" s="43"/>
@@ -3299,7 +3411,7 @@
       <c r="V34" s="48"/>
       <c r="W34" s="63"/>
     </row>
-    <row r="35" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" ht="16.5">
       <c r="A35" s="43"/>
       <c r="B35" s="43"/>
       <c r="C35" s="43"/>
@@ -3324,7 +3436,7 @@
       <c r="V35" s="48"/>
       <c r="W35" s="65"/>
     </row>
-    <row r="36" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" ht="16.5">
       <c r="A36" s="43"/>
       <c r="B36" s="43"/>
       <c r="C36" s="43"/>
@@ -3349,7 +3461,7 @@
       <c r="V36" s="48"/>
       <c r="W36" s="65"/>
     </row>
-    <row r="37" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" ht="16.5">
       <c r="A37" s="43"/>
       <c r="B37" s="43"/>
       <c r="C37" s="43"/>
@@ -3374,7 +3486,7 @@
       <c r="V37" s="48"/>
       <c r="W37" s="65"/>
     </row>
-    <row r="38" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" ht="16.5">
       <c r="A38" s="43"/>
       <c r="B38" s="43"/>
       <c r="C38" s="43"/>
@@ -3399,7 +3511,7 @@
       <c r="V38" s="48"/>
       <c r="W38" s="65"/>
     </row>
-    <row r="39" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23" ht="16.5">
       <c r="A39" s="43"/>
       <c r="B39" s="43"/>
       <c r="C39" s="43"/>
@@ -3424,7 +3536,7 @@
       <c r="V39" s="48"/>
       <c r="W39" s="65"/>
     </row>
-    <row r="40" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" ht="16.5">
       <c r="A40" s="43"/>
       <c r="B40" s="43"/>
       <c r="C40" s="43"/>
@@ -3449,7 +3561,7 @@
       <c r="V40" s="48"/>
       <c r="W40" s="65"/>
     </row>
-    <row r="41" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" ht="16.5">
       <c r="A41" s="43"/>
       <c r="B41" s="43"/>
       <c r="C41" s="43"/>
@@ -3474,7 +3586,7 @@
       <c r="V41" s="48"/>
       <c r="W41" s="65"/>
     </row>
-    <row r="42" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" ht="16.5">
       <c r="A42" s="43"/>
       <c r="B42" s="43"/>
       <c r="C42" s="43"/>
@@ -3499,7 +3611,7 @@
       <c r="V42" s="48"/>
       <c r="W42" s="65"/>
     </row>
-    <row r="43" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" ht="16.5">
       <c r="A43" s="43"/>
       <c r="B43" s="43"/>
       <c r="C43" s="43"/>
@@ -3524,7 +3636,7 @@
       <c r="V43" s="48"/>
       <c r="W43" s="65"/>
     </row>
-    <row r="44" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" ht="16.5">
       <c r="A44" s="43"/>
       <c r="B44" s="43"/>
       <c r="C44" s="43"/>
@@ -3549,7 +3661,7 @@
       <c r="V44" s="48"/>
       <c r="W44" s="65"/>
     </row>
-    <row r="45" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" ht="16.5">
       <c r="A45" s="43"/>
       <c r="B45" s="43"/>
       <c r="C45" s="43"/>
@@ -3574,7 +3686,7 @@
       <c r="V45" s="60"/>
       <c r="W45" s="65"/>
     </row>
-    <row r="46" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" ht="16.5">
       <c r="A46" s="43"/>
       <c r="B46" s="43"/>
       <c r="C46" s="43"/>
@@ -3599,7 +3711,7 @@
       <c r="V46" s="60"/>
       <c r="W46" s="65"/>
     </row>
-    <row r="47" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" ht="16.5">
       <c r="A47" s="43"/>
       <c r="B47" s="43"/>
       <c r="C47" s="43"/>
@@ -3624,7 +3736,7 @@
       <c r="V47" s="48"/>
       <c r="W47" s="49"/>
     </row>
-    <row r="48" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" ht="16.5">
       <c r="A48" s="43"/>
       <c r="B48" s="43"/>
       <c r="C48" s="43"/>
@@ -3649,7 +3761,7 @@
       <c r="V48" s="48"/>
       <c r="W48" s="49"/>
     </row>
-    <row r="49" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" ht="16.5">
       <c r="A49" s="43"/>
       <c r="B49" s="43"/>
       <c r="C49" s="43"/>
@@ -3674,7 +3786,7 @@
       <c r="V49" s="48"/>
       <c r="W49" s="49"/>
     </row>
-    <row r="50" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" ht="16.5">
       <c r="A50" s="43"/>
       <c r="B50" s="43"/>
       <c r="C50" s="43"/>
@@ -3699,7 +3811,7 @@
       <c r="V50" s="48"/>
       <c r="W50" s="49"/>
     </row>
-    <row r="51" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" ht="16.5">
       <c r="A51" s="43"/>
       <c r="B51" s="43"/>
       <c r="C51" s="43"/>
@@ -3724,7 +3836,7 @@
       <c r="V51" s="48"/>
       <c r="W51" s="49"/>
     </row>
-    <row r="52" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" ht="16.5">
       <c r="A52" s="43"/>
       <c r="B52" s="43"/>
       <c r="C52" s="43"/>
@@ -3749,7 +3861,7 @@
       <c r="V52" s="48"/>
       <c r="W52" s="49"/>
     </row>
-    <row r="53" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" ht="16.5">
       <c r="A53" s="43"/>
       <c r="B53" s="43"/>
       <c r="C53" s="43"/>
@@ -3774,7 +3886,7 @@
       <c r="V53" s="48"/>
       <c r="W53" s="49"/>
     </row>
-    <row r="54" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="16.5">
       <c r="A54" s="48"/>
       <c r="B54" s="48"/>
       <c r="C54" s="48"/>
@@ -3799,7 +3911,7 @@
       <c r="V54" s="48"/>
       <c r="W54" s="49"/>
     </row>
-    <row r="55" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" ht="16.5">
       <c r="A55" s="48"/>
       <c r="B55" s="48"/>
       <c r="C55" s="48"/>
@@ -3824,7 +3936,7 @@
       <c r="V55" s="48"/>
       <c r="W55" s="49"/>
     </row>
-    <row r="56" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" ht="16.5">
       <c r="A56" s="48"/>
       <c r="B56" s="48"/>
       <c r="C56" s="48"/>
@@ -3849,7 +3961,7 @@
       <c r="V56" s="48"/>
       <c r="W56" s="49"/>
     </row>
-    <row r="57" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" ht="16.5">
       <c r="A57" s="48"/>
       <c r="B57" s="48"/>
       <c r="C57" s="48"/>
@@ -3874,7 +3986,7 @@
       <c r="V57" s="48"/>
       <c r="W57" s="49"/>
     </row>
-    <row r="58" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23" ht="16.5">
       <c r="A58" s="48"/>
       <c r="B58" s="48"/>
       <c r="C58" s="48"/>
@@ -3899,7 +4011,7 @@
       <c r="V58" s="48"/>
       <c r="W58" s="49"/>
     </row>
-    <row r="59" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" ht="16.5">
       <c r="A59" s="48"/>
       <c r="B59" s="48"/>
       <c r="C59" s="48"/>
@@ -3924,7 +4036,7 @@
       <c r="V59" s="48"/>
       <c r="W59" s="49"/>
     </row>
-    <row r="60" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" ht="16.5">
       <c r="A60" s="48"/>
       <c r="B60" s="48"/>
       <c r="C60" s="48"/>
@@ -3949,7 +4061,7 @@
       <c r="V60" s="48"/>
       <c r="W60" s="49"/>
     </row>
-    <row r="61" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" ht="16.5">
       <c r="A61" s="48"/>
       <c r="B61" s="48"/>
       <c r="C61" s="48"/>
@@ -3974,7 +4086,7 @@
       <c r="V61" s="48"/>
       <c r="W61" s="49"/>
     </row>
-    <row r="62" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" ht="16.5">
       <c r="A62" s="48"/>
       <c r="B62" s="48"/>
       <c r="C62" s="48"/>
@@ -3999,7 +4111,7 @@
       <c r="V62" s="48"/>
       <c r="W62" s="49"/>
     </row>
-    <row r="63" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:23" ht="16.5">
       <c r="A63" s="48"/>
       <c r="B63" s="48"/>
       <c r="C63" s="48"/>
@@ -4024,7 +4136,7 @@
       <c r="V63" s="48"/>
       <c r="W63" s="49"/>
     </row>
-    <row r="64" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" ht="16.5">
       <c r="A64" s="48"/>
       <c r="B64" s="48"/>
       <c r="C64" s="48"/>
@@ -4049,7 +4161,7 @@
       <c r="V64" s="48"/>
       <c r="W64" s="49"/>
     </row>
-    <row r="65" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:23" ht="16.5">
       <c r="A65" s="48"/>
       <c r="B65" s="48"/>
       <c r="C65" s="48"/>
@@ -4074,7 +4186,7 @@
       <c r="V65" s="48"/>
       <c r="W65" s="49"/>
     </row>
-    <row r="66" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:23" ht="16.5">
       <c r="A66" s="48"/>
       <c r="B66" s="48"/>
       <c r="C66" s="48"/>
@@ -4099,7 +4211,7 @@
       <c r="V66" s="48"/>
       <c r="W66" s="49"/>
     </row>
-    <row r="67" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:23" ht="16.5">
       <c r="A67" s="48"/>
       <c r="B67" s="48"/>
       <c r="C67" s="48"/>
@@ -4124,7 +4236,7 @@
       <c r="V67" s="48"/>
       <c r="W67" s="49"/>
     </row>
-    <row r="68" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" ht="16.5">
       <c r="A68" s="48"/>
       <c r="B68" s="48"/>
       <c r="C68" s="48"/>
@@ -4149,7 +4261,7 @@
       <c r="V68" s="48"/>
       <c r="W68" s="49"/>
     </row>
-    <row r="69" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" ht="16.5">
       <c r="A69" s="48"/>
       <c r="B69" s="48"/>
       <c r="C69" s="48"/>
@@ -4174,7 +4286,7 @@
       <c r="V69" s="48"/>
       <c r="W69" s="49"/>
     </row>
-    <row r="70" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:23" ht="16.5">
       <c r="A70" s="48"/>
       <c r="B70" s="48"/>
       <c r="C70" s="48"/>
@@ -4199,7 +4311,7 @@
       <c r="V70" s="48"/>
       <c r="W70" s="49"/>
     </row>
-    <row r="71" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:23" ht="16.5">
       <c r="A71" s="48"/>
       <c r="B71" s="48"/>
       <c r="C71" s="48"/>
@@ -4224,7 +4336,7 @@
       <c r="V71" s="48"/>
       <c r="W71" s="49"/>
     </row>
-    <row r="72" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:23" ht="16.5">
       <c r="A72" s="48"/>
       <c r="B72" s="48"/>
       <c r="C72" s="48"/>
@@ -4249,7 +4361,7 @@
       <c r="V72" s="48"/>
       <c r="W72" s="49"/>
     </row>
-    <row r="73" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:23" ht="16.5">
       <c r="A73" s="48"/>
       <c r="B73" s="48"/>
       <c r="C73" s="48"/>
@@ -4274,7 +4386,7 @@
       <c r="V73" s="48"/>
       <c r="W73" s="49"/>
     </row>
-    <row r="74" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:23" ht="16.5">
       <c r="A74" s="48"/>
       <c r="B74" s="48"/>
       <c r="C74" s="48"/>
@@ -4299,7 +4411,7 @@
       <c r="V74" s="48"/>
       <c r="W74" s="49"/>
     </row>
-    <row r="75" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23" ht="16.5">
       <c r="A75" s="48"/>
       <c r="B75" s="48"/>
       <c r="C75" s="48"/>
@@ -4324,7 +4436,7 @@
       <c r="V75" s="48"/>
       <c r="W75" s="49"/>
     </row>
-    <row r="76" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23" ht="16.5">
       <c r="A76" s="48"/>
       <c r="B76" s="48"/>
       <c r="C76" s="48"/>
@@ -4349,7 +4461,7 @@
       <c r="V76" s="48"/>
       <c r="W76" s="49"/>
     </row>
-    <row r="77" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:23" ht="16.5">
       <c r="A77" s="48"/>
       <c r="B77" s="48"/>
       <c r="C77" s="48"/>
@@ -4374,7 +4486,7 @@
       <c r="V77" s="48"/>
       <c r="W77" s="49"/>
     </row>
-    <row r="78" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:23" ht="16.5">
       <c r="A78" s="48"/>
       <c r="B78" s="48"/>
       <c r="C78" s="48"/>
@@ -4399,7 +4511,7 @@
       <c r="V78" s="48"/>
       <c r="W78" s="49"/>
     </row>
-    <row r="79" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:23" ht="16.5">
       <c r="A79" s="48"/>
       <c r="B79" s="48"/>
       <c r="C79" s="48"/>
@@ -4424,7 +4536,7 @@
       <c r="V79" s="48"/>
       <c r="W79" s="49"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:23">
       <c r="A80" s="48"/>
       <c r="B80" s="48"/>
       <c r="C80" s="48"/>
@@ -4449,7 +4561,7 @@
       <c r="V80" s="48"/>
       <c r="W80" s="49"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:23">
       <c r="A81" s="48"/>
       <c r="B81" s="48"/>
       <c r="C81" s="48"/>
@@ -4474,7 +4586,7 @@
       <c r="V81" s="48"/>
       <c r="W81" s="49"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:23">
       <c r="A82" s="48"/>
       <c r="B82" s="48"/>
       <c r="C82" s="48"/>
@@ -4499,7 +4611,7 @@
       <c r="V82" s="48"/>
       <c r="W82" s="49"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:23">
       <c r="A83" s="48"/>
       <c r="B83" s="48"/>
       <c r="C83" s="48"/>
@@ -4524,7 +4636,7 @@
       <c r="V83" s="48"/>
       <c r="W83" s="49"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:23">
       <c r="A84" s="48"/>
       <c r="B84" s="48"/>
       <c r="C84" s="48"/>
@@ -4549,7 +4661,7 @@
       <c r="V84" s="48"/>
       <c r="W84" s="49"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:23">
       <c r="A85" s="48"/>
       <c r="B85" s="48"/>
       <c r="C85" s="48"/>
@@ -4574,7 +4686,7 @@
       <c r="V85" s="48"/>
       <c r="W85" s="49"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:23">
       <c r="A86" s="48"/>
       <c r="B86" s="48"/>
       <c r="C86" s="48"/>
@@ -4599,7 +4711,7 @@
       <c r="V86" s="48"/>
       <c r="W86" s="49"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:23">
       <c r="A87" s="48"/>
       <c r="B87" s="48"/>
       <c r="C87" s="48"/>
@@ -4624,7 +4736,7 @@
       <c r="V87" s="48"/>
       <c r="W87" s="49"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:23">
       <c r="A88" s="48"/>
       <c r="B88" s="48"/>
       <c r="C88" s="48"/>
@@ -4649,7 +4761,7 @@
       <c r="V88" s="48"/>
       <c r="W88" s="49"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:23">
       <c r="A89" s="48"/>
       <c r="B89" s="48"/>
       <c r="C89" s="48"/>
@@ -4674,7 +4786,7 @@
       <c r="V89" s="48"/>
       <c r="W89" s="49"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:23">
       <c r="A90" s="48"/>
       <c r="B90" s="48"/>
       <c r="C90" s="48"/>
@@ -4699,7 +4811,7 @@
       <c r="V90" s="48"/>
       <c r="W90" s="49"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:23">
       <c r="A91" s="48"/>
       <c r="B91" s="48"/>
       <c r="C91" s="48"/>
@@ -4724,7 +4836,7 @@
       <c r="V91" s="48"/>
       <c r="W91" s="49"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:23">
       <c r="A92" s="48"/>
       <c r="B92" s="48"/>
       <c r="C92" s="48"/>
@@ -4749,7 +4861,7 @@
       <c r="V92" s="48"/>
       <c r="W92" s="49"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:23">
       <c r="A93" s="48"/>
       <c r="B93" s="48"/>
       <c r="C93" s="48"/>
@@ -4774,7 +4886,7 @@
       <c r="V93" s="48"/>
       <c r="W93" s="49"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:23">
       <c r="A94" s="48"/>
       <c r="B94" s="48"/>
       <c r="C94" s="48"/>
@@ -4799,7 +4911,7 @@
       <c r="V94" s="48"/>
       <c r="W94" s="49"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:23">
       <c r="A95" s="48"/>
       <c r="B95" s="48"/>
       <c r="C95" s="48"/>
@@ -4824,7 +4936,7 @@
       <c r="V95" s="48"/>
       <c r="W95" s="49"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:23">
       <c r="A96" s="48"/>
       <c r="B96" s="48"/>
       <c r="C96" s="48"/>
@@ -4849,7 +4961,7 @@
       <c r="V96" s="48"/>
       <c r="W96" s="49"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:23">
       <c r="A97" s="48"/>
       <c r="B97" s="48"/>
       <c r="C97" s="48"/>
@@ -4874,7 +4986,7 @@
       <c r="V97" s="48"/>
       <c r="W97" s="49"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:23">
       <c r="A98" s="48"/>
       <c r="B98" s="48"/>
       <c r="C98" s="48"/>
@@ -4899,7 +5011,7 @@
       <c r="V98" s="48"/>
       <c r="W98" s="49"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:23">
       <c r="A99" s="48"/>
       <c r="B99" s="48"/>
       <c r="C99" s="48"/>
@@ -4924,7 +5036,7 @@
       <c r="V99" s="48"/>
       <c r="W99" s="49"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:23">
       <c r="A100" s="48"/>
       <c r="B100" s="48"/>
       <c r="C100" s="48"/>
@@ -4949,7 +5061,7 @@
       <c r="V100" s="48"/>
       <c r="W100" s="49"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:23">
       <c r="A101" s="48"/>
       <c r="B101" s="48"/>
       <c r="C101" s="48"/>
@@ -4974,7 +5086,7 @@
       <c r="V101" s="48"/>
       <c r="W101" s="49"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:23">
       <c r="A102" s="48"/>
       <c r="B102" s="48"/>
       <c r="C102" s="48"/>
@@ -4999,7 +5111,7 @@
       <c r="V102" s="48"/>
       <c r="W102" s="49"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:23">
       <c r="A103" s="48"/>
       <c r="B103" s="48"/>
       <c r="C103" s="48"/>
@@ -5024,7 +5136,7 @@
       <c r="V103" s="48"/>
       <c r="W103" s="49"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:23">
       <c r="A104" s="48"/>
       <c r="B104" s="48"/>
       <c r="C104" s="48"/>
@@ -5049,7 +5161,7 @@
       <c r="V104" s="48"/>
       <c r="W104" s="49"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:23">
       <c r="A105" s="48"/>
       <c r="B105" s="48"/>
       <c r="C105" s="48"/>
@@ -5074,7 +5186,7 @@
       <c r="V105" s="48"/>
       <c r="W105" s="49"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:23">
       <c r="A106" s="48"/>
       <c r="B106" s="48"/>
       <c r="C106" s="48"/>
@@ -5099,7 +5211,7 @@
       <c r="V106" s="48"/>
       <c r="W106" s="49"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:23">
       <c r="A107" s="48"/>
       <c r="B107" s="48"/>
       <c r="C107" s="48"/>
@@ -5124,7 +5236,7 @@
       <c r="V107" s="48"/>
       <c r="W107" s="49"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:23">
       <c r="A108" s="48"/>
       <c r="B108" s="48"/>
       <c r="C108" s="48"/>
@@ -5149,7 +5261,7 @@
       <c r="V108" s="48"/>
       <c r="W108" s="49"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:23">
       <c r="A109" s="48"/>
       <c r="B109" s="48"/>
       <c r="C109" s="48"/>
@@ -5174,7 +5286,7 @@
       <c r="V109" s="48"/>
       <c r="W109" s="49"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:23">
       <c r="A110" s="48"/>
       <c r="B110" s="48"/>
       <c r="C110" s="48"/>
@@ -5199,7 +5311,7 @@
       <c r="V110" s="48"/>
       <c r="W110" s="49"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:23">
       <c r="A111" s="48"/>
       <c r="B111" s="48"/>
       <c r="C111" s="48"/>
@@ -5224,7 +5336,7 @@
       <c r="V111" s="48"/>
       <c r="W111" s="49"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:23">
       <c r="A112" s="48"/>
       <c r="B112" s="48"/>
       <c r="C112" s="48"/>
@@ -5249,7 +5361,7 @@
       <c r="V112" s="48"/>
       <c r="W112" s="49"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:23">
       <c r="A113" s="48"/>
       <c r="B113" s="48"/>
       <c r="C113" s="48"/>
@@ -5274,7 +5386,7 @@
       <c r="V113" s="48"/>
       <c r="W113" s="49"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:23">
       <c r="A114" s="48"/>
       <c r="B114" s="48"/>
       <c r="C114" s="48"/>
@@ -5299,7 +5411,7 @@
       <c r="V114" s="48"/>
       <c r="W114" s="49"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:23">
       <c r="A115" s="48"/>
       <c r="B115" s="48"/>
       <c r="C115" s="48"/>
@@ -5324,7 +5436,7 @@
       <c r="V115" s="48"/>
       <c r="W115" s="49"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:23">
       <c r="A116" s="48"/>
       <c r="B116" s="48"/>
       <c r="C116" s="48"/>
@@ -5349,7 +5461,7 @@
       <c r="V116" s="48"/>
       <c r="W116" s="49"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:23">
       <c r="A117" s="48"/>
       <c r="B117" s="48"/>
       <c r="C117" s="48"/>
@@ -5374,7 +5486,7 @@
       <c r="V117" s="48"/>
       <c r="W117" s="49"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:23">
       <c r="A118" s="48"/>
       <c r="B118" s="48"/>
       <c r="C118" s="48"/>
@@ -5399,7 +5511,7 @@
       <c r="V118" s="48"/>
       <c r="W118" s="49"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:23">
       <c r="A119" s="48"/>
       <c r="B119" s="48"/>
       <c r="C119" s="48"/>
@@ -5424,7 +5536,7 @@
       <c r="V119" s="48"/>
       <c r="W119" s="49"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:23">
       <c r="A120" s="48"/>
       <c r="B120" s="48"/>
       <c r="C120" s="48"/>
@@ -5449,7 +5561,7 @@
       <c r="V120" s="48"/>
       <c r="W120" s="49"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:23">
       <c r="A121" s="48"/>
       <c r="B121" s="48"/>
       <c r="C121" s="48"/>
@@ -5474,7 +5586,7 @@
       <c r="V121" s="48"/>
       <c r="W121" s="49"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:23">
       <c r="A122" s="48"/>
       <c r="B122" s="48"/>
       <c r="C122" s="48"/>
@@ -5499,7 +5611,7 @@
       <c r="V122" s="48"/>
       <c r="W122" s="49"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:23">
       <c r="A123" s="48"/>
       <c r="B123" s="48"/>
       <c r="C123" s="48"/>
@@ -5524,7 +5636,7 @@
       <c r="V123" s="48"/>
       <c r="W123" s="49"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:23">
       <c r="A124" s="48"/>
       <c r="B124" s="48"/>
       <c r="C124" s="48"/>
@@ -5549,7 +5661,7 @@
       <c r="V124" s="48"/>
       <c r="W124" s="49"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:23">
       <c r="A125" s="48"/>
       <c r="B125" s="48"/>
       <c r="C125" s="48"/>
@@ -5574,7 +5686,7 @@
       <c r="V125" s="48"/>
       <c r="W125" s="49"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:23">
       <c r="A126" s="48"/>
       <c r="B126" s="48"/>
       <c r="C126" s="48"/>
@@ -5599,7 +5711,7 @@
       <c r="V126" s="48"/>
       <c r="W126" s="49"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:23">
       <c r="A127" s="48"/>
       <c r="B127" s="48"/>
       <c r="C127" s="48"/>
@@ -5624,7 +5736,7 @@
       <c r="V127" s="48"/>
       <c r="W127" s="49"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:23">
       <c r="A128" s="48"/>
       <c r="B128" s="48"/>
       <c r="C128" s="48"/>
@@ -5649,7 +5761,7 @@
       <c r="V128" s="48"/>
       <c r="W128" s="49"/>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:23">
       <c r="A129" s="48"/>
       <c r="B129" s="48"/>
       <c r="C129" s="48"/>
@@ -5674,7 +5786,7 @@
       <c r="V129" s="48"/>
       <c r="W129" s="49"/>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:23">
       <c r="A130" s="48"/>
       <c r="B130" s="48"/>
       <c r="C130" s="48"/>
@@ -5699,7 +5811,7 @@
       <c r="V130" s="48"/>
       <c r="W130" s="49"/>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:23">
       <c r="A131" s="48"/>
       <c r="B131" s="48"/>
       <c r="C131" s="48"/>
@@ -5724,7 +5836,7 @@
       <c r="V131" s="48"/>
       <c r="W131" s="49"/>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:23">
       <c r="A132" s="48"/>
       <c r="B132" s="48"/>
       <c r="C132" s="48"/>
@@ -5749,7 +5861,7 @@
       <c r="V132" s="48"/>
       <c r="W132" s="49"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:23">
       <c r="A133" s="48"/>
       <c r="B133" s="48"/>
       <c r="C133" s="48"/>
@@ -5774,7 +5886,7 @@
       <c r="V133" s="48"/>
       <c r="W133" s="49"/>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:23">
       <c r="A134" s="48"/>
       <c r="B134" s="48"/>
       <c r="C134" s="48"/>
@@ -5799,7 +5911,7 @@
       <c r="V134" s="48"/>
       <c r="W134" s="49"/>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:23">
       <c r="A135" s="48"/>
       <c r="B135" s="48"/>
       <c r="C135" s="48"/>
@@ -5824,7 +5936,7 @@
       <c r="V135" s="48"/>
       <c r="W135" s="49"/>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:23">
       <c r="A136" s="48"/>
       <c r="B136" s="48"/>
       <c r="C136" s="48"/>
@@ -5845,7 +5957,7 @@
       <c r="R136" s="49"/>
       <c r="W136" s="49"/>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:23">
       <c r="A137" s="48"/>
       <c r="B137" s="48"/>
       <c r="C137" s="48"/>
@@ -5866,7 +5978,7 @@
       <c r="R137" s="49"/>
       <c r="W137" s="49"/>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:23">
       <c r="A138" s="48"/>
       <c r="B138" s="48"/>
       <c r="C138" s="48"/>
@@ -5887,7 +5999,7 @@
       <c r="R138" s="49"/>
       <c r="W138" s="49"/>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:23">
       <c r="A139" s="48"/>
       <c r="B139" s="48"/>
       <c r="C139" s="48"/>
@@ -5908,7 +6020,7 @@
       <c r="R139" s="49"/>
       <c r="W139" s="49"/>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:23">
       <c r="A140" s="48"/>
       <c r="B140" s="48"/>
       <c r="C140" s="48"/>
@@ -5929,7 +6041,7 @@
       <c r="R140" s="49"/>
       <c r="W140" s="49"/>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:23">
       <c r="A141" s="48"/>
       <c r="B141" s="48"/>
       <c r="C141" s="48"/>
@@ -5950,7 +6062,7 @@
       <c r="R141" s="49"/>
       <c r="W141" s="49"/>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:23">
       <c r="A142" s="48"/>
       <c r="B142" s="48"/>
       <c r="C142" s="48"/>
@@ -5971,7 +6083,7 @@
       <c r="R142" s="49"/>
       <c r="W142" s="49"/>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:23">
       <c r="A143" s="48"/>
       <c r="B143" s="48"/>
       <c r="C143" s="48"/>
@@ -5992,7 +6104,7 @@
       <c r="R143" s="49"/>
       <c r="W143" s="49"/>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:23">
       <c r="A144" s="48"/>
       <c r="B144" s="48"/>
       <c r="C144" s="48"/>
@@ -6013,7 +6125,7 @@
       <c r="R144" s="49"/>
       <c r="W144" s="49"/>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:23">
       <c r="A145" s="48"/>
       <c r="B145" s="48"/>
       <c r="C145" s="48"/>
@@ -6034,7 +6146,7 @@
       <c r="R145" s="49"/>
       <c r="W145" s="49"/>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:23">
       <c r="A146" s="48"/>
       <c r="B146" s="48"/>
       <c r="C146" s="48"/>
@@ -6055,7 +6167,7 @@
       <c r="R146" s="49"/>
       <c r="W146" s="49"/>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:23">
       <c r="A147" s="48"/>
       <c r="B147" s="48"/>
       <c r="C147" s="48"/>
@@ -6076,7 +6188,7 @@
       <c r="R147" s="49"/>
       <c r="W147" s="49"/>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:23">
       <c r="A148" s="48"/>
       <c r="B148" s="48"/>
       <c r="C148" s="48"/>
@@ -6097,7 +6209,7 @@
       <c r="R148" s="49"/>
       <c r="W148" s="49"/>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:23">
       <c r="A149" s="48"/>
       <c r="B149" s="48"/>
       <c r="C149" s="48"/>
@@ -6118,7 +6230,7 @@
       <c r="R149" s="49"/>
       <c r="W149" s="49"/>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:23">
       <c r="A150" s="48"/>
       <c r="B150" s="48"/>
       <c r="C150" s="48"/>
@@ -6139,7 +6251,7 @@
       <c r="R150" s="49"/>
       <c r="W150" s="49"/>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:23">
       <c r="A151" s="48"/>
       <c r="B151" s="48"/>
       <c r="C151" s="48"/>
@@ -6160,7 +6272,7 @@
       <c r="R151" s="49"/>
       <c r="W151" s="49"/>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:23">
       <c r="A152" s="48"/>
       <c r="B152" s="48"/>
       <c r="C152" s="48"/>
@@ -6181,7 +6293,7 @@
       <c r="R152" s="49"/>
       <c r="W152" s="49"/>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:23">
       <c r="A153" s="48"/>
       <c r="B153" s="48"/>
       <c r="C153" s="48"/>
@@ -6202,7 +6314,7 @@
       <c r="R153" s="49"/>
       <c r="W153" s="49"/>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:23">
       <c r="A154" s="48"/>
       <c r="B154" s="48"/>
       <c r="C154" s="48"/>
@@ -6223,7 +6335,7 @@
       <c r="R154" s="49"/>
       <c r="W154" s="49"/>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:23">
       <c r="A155" s="48"/>
       <c r="B155" s="48"/>
       <c r="C155" s="48"/>
@@ -6244,7 +6356,7 @@
       <c r="R155" s="49"/>
       <c r="W155" s="49"/>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:23">
       <c r="A156" s="48"/>
       <c r="B156" s="48"/>
       <c r="C156" s="48"/>
@@ -6265,7 +6377,7 @@
       <c r="R156" s="49"/>
       <c r="W156" s="49"/>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:23">
       <c r="A157" s="48"/>
       <c r="B157" s="48"/>
       <c r="C157" s="48"/>
@@ -6286,7 +6398,7 @@
       <c r="R157" s="49"/>
       <c r="W157" s="49"/>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:23">
       <c r="A158" s="48"/>
       <c r="B158" s="48"/>
       <c r="C158" s="48"/>
@@ -6307,7 +6419,7 @@
       <c r="R158" s="49"/>
       <c r="W158" s="49"/>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:23">
       <c r="A159" s="48"/>
       <c r="B159" s="48"/>
       <c r="C159" s="48"/>
@@ -6328,7 +6440,7 @@
       <c r="R159" s="49"/>
       <c r="W159" s="49"/>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:23">
       <c r="A160" s="48"/>
       <c r="B160" s="48"/>
       <c r="C160" s="48"/>
@@ -6349,7 +6461,7 @@
       <c r="R160" s="49"/>
       <c r="W160" s="49"/>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:23">
       <c r="A161" s="48"/>
       <c r="B161" s="48"/>
       <c r="C161" s="48"/>
@@ -6370,7 +6482,7 @@
       <c r="R161" s="49"/>
       <c r="W161" s="49"/>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:23">
       <c r="A162" s="48"/>
       <c r="B162" s="48"/>
       <c r="C162" s="48"/>
@@ -6391,7 +6503,7 @@
       <c r="R162" s="49"/>
       <c r="W162" s="49"/>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:23">
       <c r="A163" s="48"/>
       <c r="B163" s="48"/>
       <c r="C163" s="48"/>
@@ -6412,7 +6524,7 @@
       <c r="R163" s="49"/>
       <c r="W163" s="49"/>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:23">
       <c r="A164" s="48"/>
       <c r="B164" s="48"/>
       <c r="C164" s="48"/>
@@ -6433,7 +6545,7 @@
       <c r="R164" s="49"/>
       <c r="W164" s="49"/>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:23">
       <c r="A165" s="48"/>
       <c r="B165" s="48"/>
       <c r="C165" s="48"/>
@@ -6454,7 +6566,7 @@
       <c r="R165" s="49"/>
       <c r="W165" s="49"/>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:23">
       <c r="A166" s="48"/>
       <c r="B166" s="48"/>
       <c r="C166" s="48"/>
@@ -6475,7 +6587,7 @@
       <c r="R166" s="49"/>
       <c r="W166" s="49"/>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:23">
       <c r="A167" s="48"/>
       <c r="B167" s="48"/>
       <c r="C167" s="48"/>
@@ -6496,7 +6608,7 @@
       <c r="R167" s="49"/>
       <c r="W167" s="49"/>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:23">
       <c r="A168" s="48"/>
       <c r="B168" s="48"/>
       <c r="C168" s="48"/>
@@ -6517,7 +6629,7 @@
       <c r="R168" s="49"/>
       <c r="W168" s="49"/>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:23">
       <c r="A169" s="48"/>
       <c r="B169" s="48"/>
       <c r="C169" s="48"/>
@@ -6538,7 +6650,7 @@
       <c r="R169" s="49"/>
       <c r="W169" s="49"/>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:23">
       <c r="A170" s="48"/>
       <c r="B170" s="48"/>
       <c r="C170" s="48"/>
@@ -6606,33 +6718,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:R6"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="7" width="7.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="6.375" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="7" width="7.125" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" customWidth="1"/>
-    <col min="10" max="10" width="44.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.125" customWidth="1"/>
+    <col min="10" max="10" width="44.375" customWidth="1"/>
     <col min="11" max="11" width="25.5" customWidth="1"/>
     <col min="12" max="12" width="23.5" customWidth="1"/>
-    <col min="13" max="13" width="54.83203125" customWidth="1"/>
+    <col min="13" max="13" width="54.875" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" customWidth="1"/>
-    <col min="17" max="17" width="31.1640625" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.125" customWidth="1"/>
+    <col min="16" max="16" width="14.375" customWidth="1"/>
+    <col min="17" max="17" width="31.125" customWidth="1"/>
+    <col min="18" max="18" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="36" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
@@ -6688,7 +6800,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="30" customHeight="1">
       <c r="A2" s="77" t="s">
         <v>98</v>
       </c>
@@ -6742,7 +6854,7 @@
       </c>
       <c r="R2" s="84"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="77" t="s">
         <v>98</v>
       </c>
@@ -6796,7 +6908,7 @@
       </c>
       <c r="R3" s="84"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="77" t="s">
         <v>98</v>
       </c>
@@ -6850,7 +6962,7 @@
       </c>
       <c r="R4" s="84"/>
     </row>
-    <row r="5" spans="1:18" ht="32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" ht="33">
       <c r="A5" s="77" t="s">
         <v>122</v>
       </c>
@@ -6904,7 +7016,7 @@
       </c>
       <c r="R5" s="84"/>
     </row>
-    <row r="6" spans="1:18" ht="48" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" ht="49.5">
       <c r="A6" s="77" t="s">
         <v>122</v>
       </c>
@@ -6957,6 +7069,60 @@
         <v>133</v>
       </c>
       <c r="R6" s="84"/>
+    </row>
+    <row r="7" spans="1:18" ht="49.5">
+      <c r="A7" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="79" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="F7" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" s="81" t="s">
+        <v>194</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" s="82" t="s">
+        <v>195</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="L7" s="108" t="s">
+        <v>196</v>
+      </c>
+      <c r="M7" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="N7" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="O7" s="84" t="s">
+        <v>199</v>
+      </c>
+      <c r="P7" s="85" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q7" s="84" t="s">
+        <v>201</v>
+      </c>
+      <c r="R7" s="84"/>
     </row>
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
@@ -6972,34 +7138,34 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
+    <col min="5" max="5" width="25.625" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:11" ht="20.25">
+      <c r="A1" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
         <v>40</v>
       </c>
@@ -7034,9 +7200,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
+    <row r="3" spans="1:11" ht="17.25">
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -7047,9 +7213,9 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94"/>
+    <row r="4" spans="1:11" ht="17.25">
+      <c r="A4" s="97"/>
+      <c r="B4" s="98"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -7060,9 +7226,9 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="92"/>
-      <c r="B5" s="92"/>
+    <row r="5" spans="1:11" ht="17.25">
+      <c r="A5" s="96"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -7073,9 +7239,9 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="94"/>
-      <c r="B6" s="94"/>
+    <row r="6" spans="1:11" ht="17.25">
+      <c r="A6" s="98"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -7086,9 +7252,9 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="94"/>
-      <c r="B7" s="94"/>
+    <row r="7" spans="1:11" ht="17.25">
+      <c r="A7" s="98"/>
+      <c r="B7" s="98"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -7099,9 +7265,9 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="94"/>
-      <c r="B8" s="94"/>
+    <row r="8" spans="1:11" ht="17.25">
+      <c r="A8" s="98"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -7112,9 +7278,9 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="94"/>
-      <c r="B9" s="94"/>
+    <row r="9" spans="1:11" ht="17.25">
+      <c r="A9" s="98"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -7125,9 +7291,9 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="93"/>
-      <c r="B10" s="93"/>
+    <row r="10" spans="1:11" ht="17.25">
+      <c r="A10" s="97"/>
+      <c r="B10" s="97"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -7138,7 +7304,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="20"/>
@@ -7172,54 +7338,54 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="32.875" customWidth="1"/>
+    <col min="6" max="6" width="4.875" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.83203125" customWidth="1"/>
+    <col min="13" max="13" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="96"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="98"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="100"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -7260,7 +7426,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -7275,7 +7441,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -7290,7 +7456,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -7305,7 +7471,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -7320,7 +7486,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -7335,7 +7501,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7350,7 +7516,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7365,7 +7531,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7380,7 +7546,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7395,7 +7561,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7410,7 +7576,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7425,7 +7591,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7440,7 +7606,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7486,54 +7652,54 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="32.875" customWidth="1"/>
+    <col min="6" max="6" width="4.875" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.83203125" customWidth="1"/>
+    <col min="13" max="13" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="96"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="98"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="100"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -7574,7 +7740,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -7589,7 +7755,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -7604,7 +7770,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -7619,7 +7785,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -7634,7 +7800,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -7649,7 +7815,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7664,7 +7830,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7679,7 +7845,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7694,7 +7860,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7709,7 +7875,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7724,7 +7890,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7739,7 +7905,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7754,7 +7920,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7797,57 +7963,57 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="32.875" customWidth="1"/>
+    <col min="6" max="6" width="4.875" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.83203125" customWidth="1"/>
+    <col min="13" max="13" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="96"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="98"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="100"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -7888,22 +8054,44 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="107.25" customHeight="1">
+      <c r="A4" s="103">
+        <v>1</v>
+      </c>
+      <c r="B4" s="104" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="104" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="104" t="s">
+        <v>185</v>
+      </c>
+      <c r="G4" s="106" t="s">
+        <v>186</v>
+      </c>
+      <c r="H4" s="103" t="s">
+        <v>187</v>
+      </c>
+      <c r="I4" s="103" t="s">
+        <v>188</v>
+      </c>
+      <c r="J4" s="107" t="s">
+        <v>189</v>
+      </c>
+      <c r="K4" s="107" t="s">
+        <v>189</v>
+      </c>
+      <c r="L4" s="107" t="s">
+        <v>190</v>
+      </c>
+      <c r="M4" s="103"/>
+    </row>
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -7918,7 +8106,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -7933,7 +8121,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -7948,7 +8136,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -7963,7 +8151,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7978,7 +8166,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7993,7 +8181,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -8008,7 +8196,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -8023,7 +8211,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -8038,7 +8226,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -8053,7 +8241,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -8068,7 +8256,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -8092,10 +8280,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I5:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16 JB4 SX4 ACT4 AMP4 AWL4 BGH4 BQD4 BZZ4 CJV4 CTR4 DDN4 DNJ4 DXF4 EHB4 EQX4 FAT4 FKP4 FUL4 GEH4 GOD4 GXZ4 HHV4 HRR4 IBN4 ILJ4 IVF4 JFB4 JOX4 JYT4 KIP4 KSL4 LCH4 LMD4 LVZ4 MFV4 MPR4 MZN4 NJJ4 NTF4 ODB4 OMX4 OWT4 PGP4 PQL4 QAH4 QKD4 QTZ4 RDV4 RNR4 RXN4 SHJ4 SRF4 TBB4 TKX4 TUT4 UEP4 UOL4 UYH4 VID4 VRZ4 WBV4 WLR4 WVN4">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
@@ -8114,56 +8302,56 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="7.875" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" customWidth="1"/>
+    <col min="10" max="10" width="7.875" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.83203125" customWidth="1"/>
+    <col min="13" max="13" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="96"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="98"/>
-    </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="100"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -8204,7 +8392,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -8219,7 +8407,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -8234,7 +8422,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -8249,7 +8437,7 @@
       <c r="L6" s="13"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -8264,7 +8452,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -8279,7 +8467,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -8294,7 +8482,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -8309,7 +8497,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -8324,7 +8512,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -8339,7 +8527,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -8354,7 +8542,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -8369,7 +8557,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -8384,7 +8572,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -8430,18 +8618,18 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" customWidth="1"/>
+    <col min="2" max="2" width="43.125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="42.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="42.125" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -8467,7 +8655,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -8477,7 +8665,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -8487,7 +8675,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -8497,7 +8685,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -8507,7 +8695,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -8517,7 +8705,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -8527,7 +8715,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -8537,7 +8725,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -8547,7 +8735,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -8557,7 +8745,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -8567,7 +8755,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -8577,7 +8765,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -8587,7 +8775,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -8597,7 +8785,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -8607,7 +8795,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -8617,7 +8805,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -8627,7 +8815,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -8637,7 +8825,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -8655,5 +8843,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>